--- a/Proyecto/Historia de Usuario.xlsx
+++ b/Proyecto/Historia de Usuario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\3174994_Evidencias\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD316F0A-CEA7-45D8-9BAF-97E7A044E8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4926478-186B-4891-ACF3-2CCA2D8A88A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HISTORIAS" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>HISTORIA DE USUARIO</t>
   </si>
@@ -106,13 +106,40 @@
   </si>
   <si>
     <t>Recibir notificicaciones de pedidos recibidos</t>
+  </si>
+  <si>
+    <t>Permitir ingresar datos validos y mostrar un mensaje de confirmacion.</t>
+  </si>
+  <si>
+    <t>Verificar las credenciales y redirigir al usuario a la pagina principal.</t>
+  </si>
+  <si>
+    <t>Se debe mostrar banners de promociones y novedades.</t>
+  </si>
+  <si>
+    <t>El catalogo debe mostrar productos con nombre, imagen, precio y descripcion.</t>
+  </si>
+  <si>
+    <t>Al hacer clic en "Añadir productos", el producto debe agregarse.</t>
+  </si>
+  <si>
+    <t>Agregar,modificar o eliminar productos desde un panel administrativo.</t>
+  </si>
+  <si>
+    <t>Enviar notificacion automatica al recibir un pedido.</t>
+  </si>
+  <si>
+    <t>Generar y enviar una factura de compra al cliente.</t>
+  </si>
+  <si>
+    <t>Criterio de aceptacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -159,34 +186,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -376,107 +375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -502,56 +400,142 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -564,44 +548,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,79 +890,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="5" width="46" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1"/>
-    <row r="3" spans="2:7">
-      <c r="B3" s="15" t="s">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="15" thickBot="1">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="1"/>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="21" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" ht="15" thickBot="1">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="1"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="15" thickBot="1">
-      <c r="B8" s="29"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="1"/>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="20"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -1024,8 +977,11 @@
       <c r="E9" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1">
+      <c r="F9" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1038,8 +994,11 @@
       <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1">
+      <c r="F10" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -1052,8 +1011,11 @@
       <c r="E11" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1">
+      <c r="F11" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -1066,8 +1028,11 @@
       <c r="E12" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1">
+      <c r="F12" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>5</v>
       </c>
@@ -1080,8 +1045,11 @@
       <c r="E13" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="30" customHeight="1">
+      <c r="F13" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -1094,8 +1062,11 @@
       <c r="E14" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+      <c r="F14" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -1108,8 +1079,11 @@
       <c r="E15" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1">
+      <c r="F15" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>8</v>
       </c>
@@ -1122,74 +1096,71 @@
       <c r="E16" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1">
-      <c r="B17" s="4">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1"/>
-    <row r="19" spans="2:5" ht="30" customHeight="1"/>
-    <row r="20" spans="2:5" ht="30" customHeight="1"/>
-    <row r="21" spans="2:5" ht="30" customHeight="1"/>
-    <row r="22" spans="2:5" ht="30" customHeight="1"/>
-    <row r="23" spans="2:5" ht="30" customHeight="1"/>
-    <row r="24" spans="2:5" ht="30" customHeight="1"/>
-    <row r="25" spans="2:5" ht="30" customHeight="1"/>
-    <row r="26" spans="2:5" ht="30" customHeight="1"/>
-    <row r="27" spans="2:5" ht="30" customHeight="1"/>
-    <row r="28" spans="2:5" ht="30" customHeight="1"/>
-    <row r="29" spans="2:5" ht="30" customHeight="1"/>
-    <row r="30" spans="2:5" ht="30" customHeight="1"/>
-    <row r="31" spans="2:5" ht="30" customHeight="1"/>
-    <row r="32" spans="2:5" ht="30" customHeight="1"/>
-    <row r="33" ht="30" customHeight="1"/>
-    <row r="34" ht="30" customHeight="1"/>
-    <row r="35" ht="30" customHeight="1"/>
-    <row r="36" ht="30" customHeight="1"/>
-    <row r="37" ht="30" customHeight="1"/>
-    <row r="38" ht="30" customHeight="1"/>
-    <row r="39" ht="30" customHeight="1"/>
-    <row r="40" ht="30" customHeight="1"/>
-    <row r="41" ht="30" customHeight="1"/>
-    <row r="42" ht="30" customHeight="1"/>
-    <row r="43" ht="30" customHeight="1"/>
-    <row r="44" ht="30" customHeight="1"/>
-    <row r="45" ht="30" customHeight="1"/>
-    <row r="46" ht="30" customHeight="1"/>
-    <row r="47" ht="30" customHeight="1"/>
-    <row r="48" ht="30" customHeight="1"/>
-    <row r="49" ht="30" customHeight="1"/>
-    <row r="50" ht="30" customHeight="1"/>
-    <row r="51" ht="30" customHeight="1"/>
-    <row r="52" ht="30" customHeight="1"/>
-    <row r="53" ht="30" customHeight="1"/>
-    <row r="54" ht="30" customHeight="1"/>
-    <row r="55" ht="30" customHeight="1"/>
-    <row r="56" ht="30" customHeight="1"/>
-    <row r="57" ht="30" customHeight="1"/>
-    <row r="58" ht="30" customHeight="1"/>
-    <row r="59" ht="30" customHeight="1"/>
-    <row r="60" ht="30" customHeight="1"/>
-    <row r="61" ht="30" customHeight="1"/>
-    <row r="62" ht="30" customHeight="1"/>
-    <row r="63" ht="30" customHeight="1"/>
-    <row r="64" ht="30" customHeight="1"/>
-    <row r="65" ht="30" customHeight="1"/>
-    <row r="66" ht="30" customHeight="1"/>
-    <row r="67" ht="30" customHeight="1"/>
-    <row r="68" ht="30" customHeight="1"/>
-    <row r="69" ht="30" customHeight="1"/>
-    <row r="70" ht="30" customHeight="1"/>
-    <row r="71" ht="30" customHeight="1"/>
-    <row r="72" ht="30" customHeight="1"/>
+      <c r="F16" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:E6"/>
+  <mergeCells count="7">
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="B3:F4"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="B7:B8"/>
